--- a/dataset/day_1.xlsx
+++ b/dataset/day_1.xlsx
@@ -923,7 +923,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -14051,7 +14051,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -21343,7 +21343,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -27555,7 +27555,7 @@
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -29367,7 +29367,7 @@
       </c>
       <c r="H721" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on); G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3; #3</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -30579,7 +30579,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -34791,7 +34791,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -35723,7 +35723,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -37055,7 +37055,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -37947,7 +37947,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -38599,7 +38599,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -39531,7 +39531,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.humidity_up -&gt; (F[0, 60*60] !MeetingRoomTwo.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -41023,7 +41023,7 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -42435,7 +42435,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down); G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#1; #3</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -47367,7 +47367,7 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
@@ -48259,7 +48259,7 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
@@ -48831,7 +48831,7 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -49523,7 +49523,7 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
@@ -50055,7 +50055,7 @@
       </c>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I1234" t="inlineStr">
@@ -51827,7 +51827,7 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
@@ -52679,7 +52679,7 @@
       </c>
       <c r="H1299" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1299" t="inlineStr">
@@ -53411,7 +53411,7 @@
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
@@ -53463,7 +53463,7 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -54315,7 +54315,7 @@
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
@@ -62247,7 +62247,7 @@
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1537" t="inlineStr">
@@ -70859,7 +70859,7 @@
       </c>
       <c r="H1752" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1752" t="inlineStr">
